--- a/templates/report_financing_request.xlsx
+++ b/templates/report_financing_request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t xml:space="preserve">ОТЧЕТ ПО ЗАЯВКАМ ЗА ПЕРИОД </t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>${last_4_week_total}</t>
-  </si>
-  <si>
-    <t>powered by ccs.msk.ru</t>
   </si>
   <si>
     <t>${last_1_week_number}</t>
@@ -1561,7 +1558,9 @@
   </sheetPr>
   <dimension ref="A2:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1588,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>1</v>
@@ -1729,13 +1728,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="23" t="s">
@@ -1744,7 +1743,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="24" t="s">
@@ -1753,7 +1752,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="24" t="s">
@@ -1762,7 +1761,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="25" t="s">
@@ -1770,9 +1769,7 @@
       </c>
     </row>
     <row r="18" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P18" s="26" t="s">
-        <v>43</v>
-      </c>
+      <c r="P18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
